--- a/작업일지/양재성/졸작 계획서.xlsx
+++ b/작업일지/양재성/졸작 계획서.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.9866"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="21165" windowHeight="7515"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId4"/>
@@ -17,27 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="23">
-  <x:si>
-    <x:t>엔진 학슴용 교재 구입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양재성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주로 귀가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="19">
   <x:si>
     <x:t>6월</x:t>
   </x:si>
   <x:si>
     <x:t>일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월</x:t>
   </x:si>
   <x:si>
     <x:t>월</x:t>
@@ -46,46 +31,49 @@
     <x:t>화</x:t>
   </x:si>
   <x:si>
-    <x:t>8월</x:t>
+    <x:t>수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금</x:t>
   </x:si>
   <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>9월</x:t>
+    <x:t>3월</x:t>
   </x:si>
   <x:si>
-    <x:t>수</x:t>
+    <x:t>4월</x:t>
   </x:si>
   <x:si>
-    <x:t>금</x:t>
+    <x:t>5월</x:t>
   </x:si>
   <x:si>
-    <x:t>1월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월</x:t>
+    <x:t>2월</x:t>
   </x:si>
   <x:si>
     <x:t>7월</x:t>
   </x:si>
   <x:si>
-    <x:t>내용입력</x:t>
+    <x:t>졸업작품 제안서 발표 계획서</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> 시작 날짜:</x:t>
   </x:si>
   <x:si>
-    <x:t>담당자:노창현</x:t>
+    <x:t>내용입력</x:t>
   </x:si>
   <x:si>
-    <x:t>졸업작품 제안서 발표 계획서</x:t>
+    <x:t>담당자:노창현</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -441,7 +429,7 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="37">
+  <x:fills count="36">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -652,14 +640,8 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffacff00"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
   </x:fills>
-  <x:borders count="12">
+  <x:borders count="11">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -814,20 +796,6 @@
         <x:color rgb="ffd9d9d9"/>
       </x:bottom>
     </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color rgb="ffffffff"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ffd9d9d9"/>
-      </x:bottom>
-    </x:border>
   </x:borders>
   <x:cellStyleXfs count="52">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1017,7 +985,7 @@
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="24">
+  <x:cellXfs count="23">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
@@ -1206,27 +1174,14 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
+          <x:alignment horizontal="general" vertical="center" indent="1"/>
           <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
+          <x:alignment horizontal="general" vertical="center" indent="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1816,7 +1771,7 @@
   <x:dimension ref="B1:AD45"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="M8" activeCellId="0" sqref="M8:M8"/>
+      <x:selection activeCell="AH9" activeCellId="0" sqref="AH9:AH9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="30" customHeight="1"/>
@@ -1830,7 +1785,7 @@
   <x:sheetData>
     <x:row r="1" spans="2:30" ht="48.75" customHeight="1">
       <x:c r="B1" s="20" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1" s="20"/>
       <x:c r="D1" s="20"/>
@@ -1863,11 +1818,11 @@
     </x:row>
     <x:row r="2" spans="2:5" ht="24.75" customHeight="1">
       <x:c r="B2" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2" s="21">
-        <x:f>DATEVALUE("2023/06/26")</x:f>
-        <x:v>45103</x:v>
+        <x:f>DATEVALUE("2024/01/01")</x:f>
+        <x:v>45292</x:v>
       </x:c>
       <x:c r="D2" s="21"/>
       <x:c r="E2" s="21"/>
@@ -1877,7 +1832,7 @@
       <x:c r="B4" s="5"/>
       <x:c r="C4" s="6" t="str">
         <x:f>LOWER(TEXT(C6,"m월"))</x:f>
-        <x:v>6월</x:v>
+        <x:v>1월</x:v>
       </x:c>
       <x:c r="D4" s="7" t="str">
         <x:f t="shared" ref="D4:I4" si="0">IF(TEXT(D6,"m월")=TEXT(C6,"m월"),"",LOWER(TEXT(D6,"m월")))</x:f>
@@ -1897,7 +1852,7 @@
       </x:c>
       <x:c r="H4" s="7" t="str">
         <x:f t="shared" si="0"/>
-        <x:v>7월</x:v>
+        <x:v/>
       </x:c>
       <x:c r="I4" s="7" t="str">
         <x:f t="shared" si="0"/>
@@ -1905,7 +1860,7 @@
       </x:c>
       <x:c r="J4" s="8" t="str">
         <x:f>LOWER(TEXT(J6,"m월"))</x:f>
-        <x:v>7월</x:v>
+        <x:v>1월</x:v>
       </x:c>
       <x:c r="K4" s="8" t="str">
         <x:f t="shared" ref="K4:P4" si="1">IF(TEXT(K6,"m월")=TEXT(J6,"m월"),"",LOWER(TEXT(K6,"m월")))</x:f>
@@ -1933,7 +1888,7 @@
       </x:c>
       <x:c r="Q4" s="7" t="str">
         <x:f>LOWER(TEXT(Q6,"m월"))</x:f>
-        <x:v>7월</x:v>
+        <x:v>1월</x:v>
       </x:c>
       <x:c r="R4" s="7" t="str">
         <x:f t="shared" ref="R4:W4" si="2">IF(TEXT(R6,"m월")=TEXT(Q6,"m월"),"",LOWER(TEXT(R6,"m월")))</x:f>
@@ -1961,7 +1916,7 @@
       </x:c>
       <x:c r="X4" s="8" t="str">
         <x:f>LOWER(TEXT(X6,"m월"))</x:f>
-        <x:v>7월</x:v>
+        <x:v>1월</x:v>
       </x:c>
       <x:c r="Y4" s="8" t="str">
         <x:f t="shared" ref="Y4:AD4" si="3">IF(TEXT(Y6,"m월")=TEXT(X6,"m월"),"",LOWER(TEXT(Y6,"m월")))</x:f>
@@ -2105,136 +2060,135 @@
     </x:row>
     <x:row r="6" spans="2:30" ht="18" customHeight="1">
       <x:c r="B6" s="19" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C6" s="11">
         <x:f>C2</x:f>
-        <x:v>45103</x:v>
+        <x:v>45292</x:v>
       </x:c>
       <x:c r="D6" s="11">
         <x:f>C6+1</x:f>
-        <x:v>45104</x:v>
+        <x:v>45293</x:v>
       </x:c>
       <x:c r="E6" s="11">
         <x:f t="shared" ref="E6:Q6" si="5">D6+1</x:f>
-        <x:v>45105</x:v>
+        <x:v>45294</x:v>
       </x:c>
       <x:c r="F6" s="11">
         <x:f t="shared" si="5"/>
-        <x:v>45106</x:v>
+        <x:v>45295</x:v>
       </x:c>
       <x:c r="G6" s="11">
         <x:f t="shared" si="5"/>
-        <x:v>45107</x:v>
+        <x:v>45296</x:v>
       </x:c>
       <x:c r="H6" s="11">
         <x:f t="shared" si="5"/>
-        <x:v>45108</x:v>
+        <x:v>45297</x:v>
       </x:c>
       <x:c r="I6" s="11">
         <x:f t="shared" si="5"/>
-        <x:v>45109</x:v>
+        <x:v>45298</x:v>
       </x:c>
       <x:c r="J6" s="12">
         <x:f t="shared" si="5"/>
-        <x:v>45110</x:v>
+        <x:v>45299</x:v>
       </x:c>
       <x:c r="K6" s="12">
         <x:f t="shared" si="5"/>
-        <x:v>45111</x:v>
+        <x:v>45300</x:v>
       </x:c>
       <x:c r="L6" s="12">
         <x:f t="shared" si="5"/>
-        <x:v>45112</x:v>
+        <x:v>45301</x:v>
       </x:c>
       <x:c r="M6" s="12">
         <x:f t="shared" si="5"/>
-        <x:v>45113</x:v>
+        <x:v>45302</x:v>
       </x:c>
       <x:c r="N6" s="12">
         <x:f t="shared" si="5"/>
-        <x:v>45114</x:v>
+        <x:v>45303</x:v>
       </x:c>
       <x:c r="O6" s="12">
         <x:f t="shared" si="5"/>
-        <x:v>45115</x:v>
+        <x:v>45304</x:v>
       </x:c>
       <x:c r="P6" s="12">
         <x:f t="shared" si="5"/>
-        <x:v>45116</x:v>
+        <x:v>45305</x:v>
       </x:c>
       <x:c r="Q6" s="11">
         <x:f t="shared" si="5"/>
-        <x:v>45117</x:v>
+        <x:v>45306</x:v>
       </x:c>
       <x:c r="R6" s="11">
         <x:f t="shared" ref="R6:X6" si="6">Q6+1</x:f>
-        <x:v>45118</x:v>
+        <x:v>45307</x:v>
       </x:c>
       <x:c r="S6" s="11">
         <x:f t="shared" si="6"/>
-        <x:v>45119</x:v>
+        <x:v>45308</x:v>
       </x:c>
       <x:c r="T6" s="11">
         <x:f t="shared" si="6"/>
-        <x:v>45120</x:v>
+        <x:v>45309</x:v>
       </x:c>
       <x:c r="U6" s="11">
         <x:f t="shared" si="6"/>
-        <x:v>45121</x:v>
+        <x:v>45310</x:v>
       </x:c>
       <x:c r="V6" s="11">
         <x:f t="shared" si="6"/>
-        <x:v>45122</x:v>
+        <x:v>45311</x:v>
       </x:c>
       <x:c r="W6" s="11">
         <x:f t="shared" si="6"/>
-        <x:v>45123</x:v>
+        <x:v>45312</x:v>
       </x:c>
       <x:c r="X6" s="12">
         <x:f t="shared" si="6"/>
-        <x:v>45124</x:v>
+        <x:v>45313</x:v>
       </x:c>
       <x:c r="Y6" s="12">
         <x:f t="shared" ref="Y6:AC6" si="7">X6+1</x:f>
-        <x:v>45125</x:v>
+        <x:v>45314</x:v>
       </x:c>
       <x:c r="Z6" s="12">
         <x:f t="shared" si="7"/>
-        <x:v>45126</x:v>
+        <x:v>45315</x:v>
       </x:c>
       <x:c r="AA6" s="12">
         <x:f t="shared" si="7"/>
-        <x:v>45127</x:v>
+        <x:v>45316</x:v>
       </x:c>
       <x:c r="AB6" s="12">
         <x:f t="shared" si="7"/>
-        <x:v>45128</x:v>
+        <x:v>45317</x:v>
       </x:c>
       <x:c r="AC6" s="12">
         <x:f t="shared" si="7"/>
-        <x:v>45129</x:v>
+        <x:v>45318</x:v>
       </x:c>
       <x:c r="AD6" s="12">
         <x:f>AC6+1</x:f>
-        <x:v>45130</x:v>
+        <x:v>45319</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:30" customHeight="1">
-      <x:c r="B7" s="13" t="s">
-        <x:v>1</x:v>
+      <x:c r="B7" s="13" t="str">
+        <x:f>TEXT("내용입력","aaa")</x:f>
+        <x:v>내용입력</x:v>
       </x:c>
       <x:c r="C7" s="15"/>
-      <x:c r="D7" s="22" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E7" s="22"/>
-      <x:c r="F7" s="22"/>
-      <x:c r="G7" s="22"/>
-      <x:c r="H7" s="22"/>
-      <x:c r="I7" s="22"/>
-      <x:c r="J7" s="22"/>
-      <x:c r="K7" s="22"/>
+      <x:c r="D7" s="16"/>
+      <x:c r="E7" s="15"/>
+      <x:c r="F7" s="16"/>
+      <x:c r="G7" s="15"/>
+      <x:c r="H7" s="16"/>
+      <x:c r="I7" s="15"/>
+      <x:c r="J7" s="16"/>
+      <x:c r="K7" s="15"/>
       <x:c r="L7" s="14"/>
       <x:c r="M7" s="15"/>
       <x:c r="N7" s="14"/>
@@ -2256,20 +2210,19 @@
       <x:c r="AD7" s="14"/>
     </x:row>
     <x:row r="8" spans="2:30" customHeight="1">
-      <x:c r="B8" s="13" t="s">
-        <x:v>1</x:v>
+      <x:c r="B8" s="13" t="str">
+        <x:f>TEXT("내용입력","aaa")</x:f>
+        <x:v>내용입력</x:v>
       </x:c>
       <x:c r="C8" s="15"/>
       <x:c r="D8" s="16"/>
-      <x:c r="E8" s="23" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F8" s="23"/>
-      <x:c r="G8" s="23"/>
-      <x:c r="H8" s="23"/>
-      <x:c r="I8" s="23"/>
-      <x:c r="J8" s="23"/>
-      <x:c r="K8" s="23"/>
+      <x:c r="E8" s="22"/>
+      <x:c r="F8" s="16"/>
+      <x:c r="G8" s="22"/>
+      <x:c r="H8" s="16"/>
+      <x:c r="I8" s="22"/>
+      <x:c r="J8" s="16"/>
+      <x:c r="K8" s="22"/>
       <x:c r="L8" s="14"/>
       <x:c r="M8" s="15"/>
       <x:c r="N8" s="16"/>
@@ -2291,8 +2244,9 @@
       <x:c r="AD8" s="14"/>
     </x:row>
     <x:row r="9" spans="2:30" customHeight="1">
-      <x:c r="B9" s="13" t="s">
-        <x:v>1</x:v>
+      <x:c r="B9" s="13" t="str">
+        <x:f>TEXT("내용입력","aaa")</x:f>
+        <x:v>내용입력</x:v>
       </x:c>
       <x:c r="C9" s="15"/>
       <x:c r="D9" s="16"/>
@@ -2327,7 +2281,7 @@
       <x:c r="B10" s="13"/>
       <x:c r="C10" s="6" t="str">
         <x:f>LOWER(TEXT(C12,"m월"))</x:f>
-        <x:v>7월</x:v>
+        <x:v>1월</x:v>
       </x:c>
       <x:c r="D10" s="7" t="str">
         <x:f>IF(TEXT(D12,"m월")=TEXT(C12,"m월"),"",LOWER(TEXT(D12,"m월")))</x:f>
@@ -2339,7 +2293,7 @@
       </x:c>
       <x:c r="F10" s="7" t="str">
         <x:f>IF(TEXT(F12,"m월")=TEXT(E12,"m월"),"",LOWER(TEXT(F12,"m월")))</x:f>
-        <x:v/>
+        <x:v>2월</x:v>
       </x:c>
       <x:c r="G10" s="7" t="str">
         <x:f>IF(TEXT(G12,"m월")=TEXT(F12,"m월"),"",LOWER(TEXT(G12,"m월")))</x:f>
@@ -2355,11 +2309,11 @@
       </x:c>
       <x:c r="J10" s="8" t="str">
         <x:f>LOWER(TEXT(J12,"m월"))</x:f>
-        <x:v>7월</x:v>
+        <x:v>2월</x:v>
       </x:c>
       <x:c r="K10" s="8" t="str">
         <x:f>IF(TEXT(K12,"m월")=TEXT(J12,"m월"),"",LOWER(TEXT(K12,"m월")))</x:f>
-        <x:v>8월</x:v>
+        <x:v/>
       </x:c>
       <x:c r="L10" s="8" t="str">
         <x:f>IF(TEXT(L12,"m월")=TEXT(K12,"m월"),"",LOWER(TEXT(L12,"m월")))</x:f>
@@ -2383,7 +2337,7 @@
       </x:c>
       <x:c r="Q10" s="7" t="str">
         <x:f>LOWER(TEXT(Q12,"m월"))</x:f>
-        <x:v>8월</x:v>
+        <x:v>2월</x:v>
       </x:c>
       <x:c r="R10" s="7" t="str">
         <x:f>IF(TEXT(R12,"m월")=TEXT(Q12,"m월"),"",LOWER(TEXT(R12,"m월")))</x:f>
@@ -2411,7 +2365,7 @@
       </x:c>
       <x:c r="X10" s="8" t="str">
         <x:f>LOWER(TEXT(X12,"m월"))</x:f>
-        <x:v>8월</x:v>
+        <x:v>2월</x:v>
       </x:c>
       <x:c r="Y10" s="8" t="str">
         <x:f>IF(TEXT(Y12,"m월")=TEXT(X12,"m월"),"",LOWER(TEXT(Y12,"m월")))</x:f>
@@ -2557,115 +2511,115 @@
       <x:c r="B12" s="13"/>
       <x:c r="C12" s="11">
         <x:f>AD6+1</x:f>
-        <x:v>45131</x:v>
+        <x:v>45320</x:v>
       </x:c>
       <x:c r="D12" s="11">
         <x:f>C12+1</x:f>
-        <x:v>45132</x:v>
+        <x:v>45321</x:v>
       </x:c>
       <x:c r="E12" s="11">
         <x:f>D12+1</x:f>
-        <x:v>45133</x:v>
+        <x:v>45322</x:v>
       </x:c>
       <x:c r="F12" s="11">
         <x:f>E12+1</x:f>
-        <x:v>45134</x:v>
+        <x:v>45323</x:v>
       </x:c>
       <x:c r="G12" s="11">
         <x:f>F12+1</x:f>
-        <x:v>45135</x:v>
+        <x:v>45324</x:v>
       </x:c>
       <x:c r="H12" s="11">
         <x:f>G12+1</x:f>
-        <x:v>45136</x:v>
+        <x:v>45325</x:v>
       </x:c>
       <x:c r="I12" s="11">
         <x:f>H12+1</x:f>
-        <x:v>45137</x:v>
+        <x:v>45326</x:v>
       </x:c>
       <x:c r="J12" s="12">
         <x:f>I12+1</x:f>
-        <x:v>45138</x:v>
+        <x:v>45327</x:v>
       </x:c>
       <x:c r="K12" s="12">
         <x:f>J12+1</x:f>
-        <x:v>45139</x:v>
+        <x:v>45328</x:v>
       </x:c>
       <x:c r="L12" s="12">
         <x:f>K12+1</x:f>
-        <x:v>45140</x:v>
+        <x:v>45329</x:v>
       </x:c>
       <x:c r="M12" s="12">
         <x:f>L12+1</x:f>
-        <x:v>45141</x:v>
+        <x:v>45330</x:v>
       </x:c>
       <x:c r="N12" s="12">
         <x:f>M12+1</x:f>
-        <x:v>45142</x:v>
+        <x:v>45331</x:v>
       </x:c>
       <x:c r="O12" s="12">
         <x:f>N12+1</x:f>
-        <x:v>45143</x:v>
+        <x:v>45332</x:v>
       </x:c>
       <x:c r="P12" s="12">
         <x:f>O12+1</x:f>
-        <x:v>45144</x:v>
+        <x:v>45333</x:v>
       </x:c>
       <x:c r="Q12" s="11">
         <x:f>P12+1</x:f>
-        <x:v>45145</x:v>
+        <x:v>45334</x:v>
       </x:c>
       <x:c r="R12" s="11">
         <x:f>Q12+1</x:f>
-        <x:v>45146</x:v>
+        <x:v>45335</x:v>
       </x:c>
       <x:c r="S12" s="11">
         <x:f>R12+1</x:f>
-        <x:v>45147</x:v>
+        <x:v>45336</x:v>
       </x:c>
       <x:c r="T12" s="11">
         <x:f>S12+1</x:f>
-        <x:v>45148</x:v>
+        <x:v>45337</x:v>
       </x:c>
       <x:c r="U12" s="11">
         <x:f>T12+1</x:f>
-        <x:v>45149</x:v>
+        <x:v>45338</x:v>
       </x:c>
       <x:c r="V12" s="11">
         <x:f>U12+1</x:f>
-        <x:v>45150</x:v>
+        <x:v>45339</x:v>
       </x:c>
       <x:c r="W12" s="11">
         <x:f>V12+1</x:f>
-        <x:v>45151</x:v>
+        <x:v>45340</x:v>
       </x:c>
       <x:c r="X12" s="12">
         <x:f>W12+1</x:f>
-        <x:v>45152</x:v>
+        <x:v>45341</x:v>
       </x:c>
       <x:c r="Y12" s="12">
         <x:f>X12+1</x:f>
-        <x:v>45153</x:v>
+        <x:v>45342</x:v>
       </x:c>
       <x:c r="Z12" s="12">
         <x:f>Y12+1</x:f>
-        <x:v>45154</x:v>
+        <x:v>45343</x:v>
       </x:c>
       <x:c r="AA12" s="12">
         <x:f>Z12+1</x:f>
-        <x:v>45155</x:v>
+        <x:v>45344</x:v>
       </x:c>
       <x:c r="AB12" s="12">
         <x:f>AA12+1</x:f>
-        <x:v>45156</x:v>
+        <x:v>45345</x:v>
       </x:c>
       <x:c r="AC12" s="12">
         <x:f>AB12+1</x:f>
-        <x:v>45157</x:v>
+        <x:v>45346</x:v>
       </x:c>
       <x:c r="AD12" s="12">
         <x:f>AC12+1</x:f>
-        <x:v>45158</x:v>
+        <x:v>45347</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:30" customHeight="1">
@@ -2774,7 +2728,7 @@
       <x:c r="B16" s="13"/>
       <x:c r="C16" s="6" t="str">
         <x:f>LOWER(TEXT(C18,"m월"))</x:f>
-        <x:v>8월</x:v>
+        <x:v>2월</x:v>
       </x:c>
       <x:c r="D16" s="7" t="str">
         <x:f>IF(TEXT(D18,"m월")=TEXT(C18,"m월"),"",LOWER(TEXT(D18,"m월")))</x:f>
@@ -2790,7 +2744,7 @@
       </x:c>
       <x:c r="G16" s="7" t="str">
         <x:f>IF(TEXT(G18,"m월")=TEXT(F18,"m월"),"",LOWER(TEXT(G18,"m월")))</x:f>
-        <x:v/>
+        <x:v>3월</x:v>
       </x:c>
       <x:c r="H16" s="7" t="str">
         <x:f>IF(TEXT(H18,"m월")=TEXT(G18,"m월"),"",LOWER(TEXT(H18,"m월")))</x:f>
@@ -2802,7 +2756,7 @@
       </x:c>
       <x:c r="J16" s="8" t="str">
         <x:f>LOWER(TEXT(J18,"m월"))</x:f>
-        <x:v>8월</x:v>
+        <x:v>3월</x:v>
       </x:c>
       <x:c r="K16" s="8" t="str">
         <x:f>IF(TEXT(K18,"m월")=TEXT(J18,"m월"),"",LOWER(TEXT(K18,"m월")))</x:f>
@@ -2818,7 +2772,7 @@
       </x:c>
       <x:c r="N16" s="8" t="str">
         <x:f>IF(TEXT(N18,"m월")=TEXT(M18,"m월"),"",LOWER(TEXT(N18,"m월")))</x:f>
-        <x:v>9월</x:v>
+        <x:v/>
       </x:c>
       <x:c r="O16" s="8" t="str">
         <x:f>IF(TEXT(O18,"m월")=TEXT(N18,"m월"),"",LOWER(TEXT(O18,"m월")))</x:f>
@@ -2830,7 +2784,7 @@
       </x:c>
       <x:c r="Q16" s="7" t="str">
         <x:f>LOWER(TEXT(Q18,"m월"))</x:f>
-        <x:v>9월</x:v>
+        <x:v>3월</x:v>
       </x:c>
       <x:c r="R16" s="7" t="str">
         <x:f>IF(TEXT(R18,"m월")=TEXT(Q18,"m월"),"",LOWER(TEXT(R18,"m월")))</x:f>
@@ -2858,7 +2812,7 @@
       </x:c>
       <x:c r="X16" s="8" t="str">
         <x:f>LOWER(TEXT(X18,"m월"))</x:f>
-        <x:v>9월</x:v>
+        <x:v>3월</x:v>
       </x:c>
       <x:c r="Y16" s="8" t="str">
         <x:f>IF(TEXT(Y18,"m월")=TEXT(X18,"m월"),"",LOWER(TEXT(Y18,"m월")))</x:f>
@@ -3004,115 +2958,115 @@
       <x:c r="B18" s="13"/>
       <x:c r="C18" s="11">
         <x:f>AD12+1</x:f>
-        <x:v>45159</x:v>
+        <x:v>45348</x:v>
       </x:c>
       <x:c r="D18" s="11">
         <x:f>C18+1</x:f>
-        <x:v>45160</x:v>
+        <x:v>45349</x:v>
       </x:c>
       <x:c r="E18" s="11">
         <x:f>D18+1</x:f>
-        <x:v>45161</x:v>
+        <x:v>45350</x:v>
       </x:c>
       <x:c r="F18" s="11">
         <x:f>E18+1</x:f>
-        <x:v>45162</x:v>
+        <x:v>45351</x:v>
       </x:c>
       <x:c r="G18" s="11">
         <x:f>F18+1</x:f>
-        <x:v>45163</x:v>
+        <x:v>45352</x:v>
       </x:c>
       <x:c r="H18" s="11">
         <x:f>G18+1</x:f>
-        <x:v>45164</x:v>
+        <x:v>45353</x:v>
       </x:c>
       <x:c r="I18" s="11">
         <x:f>H18+1</x:f>
-        <x:v>45165</x:v>
+        <x:v>45354</x:v>
       </x:c>
       <x:c r="J18" s="12">
         <x:f>I18+1</x:f>
-        <x:v>45166</x:v>
+        <x:v>45355</x:v>
       </x:c>
       <x:c r="K18" s="12">
         <x:f>J18+1</x:f>
-        <x:v>45167</x:v>
+        <x:v>45356</x:v>
       </x:c>
       <x:c r="L18" s="12">
         <x:f>K18+1</x:f>
-        <x:v>45168</x:v>
+        <x:v>45357</x:v>
       </x:c>
       <x:c r="M18" s="12">
         <x:f>L18+1</x:f>
-        <x:v>45169</x:v>
+        <x:v>45358</x:v>
       </x:c>
       <x:c r="N18" s="12">
         <x:f>M18+1</x:f>
-        <x:v>45170</x:v>
+        <x:v>45359</x:v>
       </x:c>
       <x:c r="O18" s="12">
         <x:f>N18+1</x:f>
-        <x:v>45171</x:v>
+        <x:v>45360</x:v>
       </x:c>
       <x:c r="P18" s="12">
         <x:f>O18+1</x:f>
-        <x:v>45172</x:v>
+        <x:v>45361</x:v>
       </x:c>
       <x:c r="Q18" s="11">
         <x:f>P18+1</x:f>
-        <x:v>45173</x:v>
+        <x:v>45362</x:v>
       </x:c>
       <x:c r="R18" s="11">
         <x:f>Q18+1</x:f>
-        <x:v>45174</x:v>
+        <x:v>45363</x:v>
       </x:c>
       <x:c r="S18" s="11">
         <x:f>R18+1</x:f>
-        <x:v>45175</x:v>
+        <x:v>45364</x:v>
       </x:c>
       <x:c r="T18" s="11">
         <x:f>S18+1</x:f>
-        <x:v>45176</x:v>
+        <x:v>45365</x:v>
       </x:c>
       <x:c r="U18" s="11">
         <x:f>T18+1</x:f>
-        <x:v>45177</x:v>
+        <x:v>45366</x:v>
       </x:c>
       <x:c r="V18" s="11">
         <x:f>U18+1</x:f>
-        <x:v>45178</x:v>
+        <x:v>45367</x:v>
       </x:c>
       <x:c r="W18" s="11">
         <x:f>V18+1</x:f>
-        <x:v>45179</x:v>
+        <x:v>45368</x:v>
       </x:c>
       <x:c r="X18" s="12">
         <x:f>W18+1</x:f>
-        <x:v>45180</x:v>
+        <x:v>45369</x:v>
       </x:c>
       <x:c r="Y18" s="12">
         <x:f>X18+1</x:f>
-        <x:v>45181</x:v>
+        <x:v>45370</x:v>
       </x:c>
       <x:c r="Z18" s="12">
         <x:f>Y18+1</x:f>
-        <x:v>45182</x:v>
+        <x:v>45371</x:v>
       </x:c>
       <x:c r="AA18" s="12">
         <x:f>Z18+1</x:f>
-        <x:v>45183</x:v>
+        <x:v>45372</x:v>
       </x:c>
       <x:c r="AB18" s="12">
         <x:f>AA18+1</x:f>
-        <x:v>45184</x:v>
+        <x:v>45373</x:v>
       </x:c>
       <x:c r="AC18" s="12">
         <x:f>AB18+1</x:f>
-        <x:v>45185</x:v>
+        <x:v>45374</x:v>
       </x:c>
       <x:c r="AD18" s="12">
         <x:f>AC18+1</x:f>
-        <x:v>45186</x:v>
+        <x:v>45375</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:30" customHeight="1">
@@ -3221,7 +3175,7 @@
       <x:c r="B22" s="13"/>
       <x:c r="C22" s="6" t="str">
         <x:f>LOWER(TEXT(C24,"m월"))</x:f>
-        <x:v>9월</x:v>
+        <x:v>3월</x:v>
       </x:c>
       <x:c r="D22" s="7" t="str">
         <x:f>IF(TEXT(D24,"m월")=TEXT(C24,"m월"),"",LOWER(TEXT(D24,"m월")))</x:f>
@@ -3249,7 +3203,7 @@
       </x:c>
       <x:c r="J22" s="8" t="str">
         <x:f>LOWER(TEXT(J24,"m월"))</x:f>
-        <x:v>9월</x:v>
+        <x:v>4월</x:v>
       </x:c>
       <x:c r="K22" s="8" t="str">
         <x:f>IF(TEXT(K24,"m월")=TEXT(J24,"m월"),"",LOWER(TEXT(K24,"m월")))</x:f>
@@ -3273,11 +3227,11 @@
       </x:c>
       <x:c r="P22" s="8" t="str">
         <x:f>IF(TEXT(P24,"m월")=TEXT(O24,"m월"),"",LOWER(TEXT(P24,"m월")))</x:f>
-        <x:v>10월</x:v>
+        <x:v/>
       </x:c>
       <x:c r="Q22" s="7" t="str">
         <x:f>LOWER(TEXT(Q24,"m월"))</x:f>
-        <x:v>10월</x:v>
+        <x:v>4월</x:v>
       </x:c>
       <x:c r="R22" s="7" t="str">
         <x:f>IF(TEXT(R24,"m월")=TEXT(Q24,"m월"),"",LOWER(TEXT(R24,"m월")))</x:f>
@@ -3305,7 +3259,7 @@
       </x:c>
       <x:c r="X22" s="8" t="str">
         <x:f>LOWER(TEXT(X24,"m월"))</x:f>
-        <x:v>10월</x:v>
+        <x:v>4월</x:v>
       </x:c>
       <x:c r="Y22" s="8" t="str">
         <x:f>IF(TEXT(Y24,"m월")=TEXT(X24,"m월"),"",LOWER(TEXT(Y24,"m월")))</x:f>
@@ -3451,115 +3405,115 @@
       <x:c r="B24" s="13"/>
       <x:c r="C24" s="11">
         <x:f>AD18+1</x:f>
-        <x:v>45187</x:v>
+        <x:v>45376</x:v>
       </x:c>
       <x:c r="D24" s="11">
         <x:f>C24+1</x:f>
-        <x:v>45188</x:v>
+        <x:v>45377</x:v>
       </x:c>
       <x:c r="E24" s="11">
         <x:f>D24+1</x:f>
-        <x:v>45189</x:v>
+        <x:v>45378</x:v>
       </x:c>
       <x:c r="F24" s="11">
         <x:f>E24+1</x:f>
-        <x:v>45190</x:v>
+        <x:v>45379</x:v>
       </x:c>
       <x:c r="G24" s="11">
         <x:f>F24+1</x:f>
-        <x:v>45191</x:v>
+        <x:v>45380</x:v>
       </x:c>
       <x:c r="H24" s="11">
         <x:f>G24+1</x:f>
-        <x:v>45192</x:v>
+        <x:v>45381</x:v>
       </x:c>
       <x:c r="I24" s="11">
         <x:f>H24+1</x:f>
-        <x:v>45193</x:v>
+        <x:v>45382</x:v>
       </x:c>
       <x:c r="J24" s="12">
         <x:f>I24+1</x:f>
-        <x:v>45194</x:v>
+        <x:v>45383</x:v>
       </x:c>
       <x:c r="K24" s="12">
         <x:f>J24+1</x:f>
-        <x:v>45195</x:v>
+        <x:v>45384</x:v>
       </x:c>
       <x:c r="L24" s="12">
         <x:f>K24+1</x:f>
-        <x:v>45196</x:v>
+        <x:v>45385</x:v>
       </x:c>
       <x:c r="M24" s="12">
         <x:f>L24+1</x:f>
-        <x:v>45197</x:v>
+        <x:v>45386</x:v>
       </x:c>
       <x:c r="N24" s="12">
         <x:f>M24+1</x:f>
-        <x:v>45198</x:v>
+        <x:v>45387</x:v>
       </x:c>
       <x:c r="O24" s="12">
         <x:f>N24+1</x:f>
-        <x:v>45199</x:v>
+        <x:v>45388</x:v>
       </x:c>
       <x:c r="P24" s="12">
         <x:f>O24+1</x:f>
-        <x:v>45200</x:v>
+        <x:v>45389</x:v>
       </x:c>
       <x:c r="Q24" s="11">
         <x:f>P24+1</x:f>
-        <x:v>45201</x:v>
+        <x:v>45390</x:v>
       </x:c>
       <x:c r="R24" s="11">
         <x:f>Q24+1</x:f>
-        <x:v>45202</x:v>
+        <x:v>45391</x:v>
       </x:c>
       <x:c r="S24" s="11">
         <x:f>R24+1</x:f>
-        <x:v>45203</x:v>
+        <x:v>45392</x:v>
       </x:c>
       <x:c r="T24" s="11">
         <x:f>S24+1</x:f>
-        <x:v>45204</x:v>
+        <x:v>45393</x:v>
       </x:c>
       <x:c r="U24" s="11">
         <x:f>T24+1</x:f>
-        <x:v>45205</x:v>
+        <x:v>45394</x:v>
       </x:c>
       <x:c r="V24" s="11">
         <x:f>U24+1</x:f>
-        <x:v>45206</x:v>
+        <x:v>45395</x:v>
       </x:c>
       <x:c r="W24" s="11">
         <x:f>V24+1</x:f>
-        <x:v>45207</x:v>
+        <x:v>45396</x:v>
       </x:c>
       <x:c r="X24" s="12">
         <x:f>W24+1</x:f>
-        <x:v>45208</x:v>
+        <x:v>45397</x:v>
       </x:c>
       <x:c r="Y24" s="12">
         <x:f>X24+1</x:f>
-        <x:v>45209</x:v>
+        <x:v>45398</x:v>
       </x:c>
       <x:c r="Z24" s="12">
         <x:f>Y24+1</x:f>
-        <x:v>45210</x:v>
+        <x:v>45399</x:v>
       </x:c>
       <x:c r="AA24" s="12">
         <x:f>Z24+1</x:f>
-        <x:v>45211</x:v>
+        <x:v>45400</x:v>
       </x:c>
       <x:c r="AB24" s="12">
         <x:f>AA24+1</x:f>
-        <x:v>45212</x:v>
+        <x:v>45401</x:v>
       </x:c>
       <x:c r="AC24" s="12">
         <x:f>AB24+1</x:f>
-        <x:v>45213</x:v>
+        <x:v>45402</x:v>
       </x:c>
       <x:c r="AD24" s="12">
         <x:f>AC24+1</x:f>
-        <x:v>45214</x:v>
+        <x:v>45403</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:30" customHeight="1">
@@ -3668,7 +3622,7 @@
       <x:c r="B28" s="13"/>
       <x:c r="C28" s="6" t="str">
         <x:f>LOWER(TEXT(C30,"m월"))</x:f>
-        <x:v>10월</x:v>
+        <x:v>4월</x:v>
       </x:c>
       <x:c r="D28" s="7" t="str">
         <x:f>IF(TEXT(D30,"m월")=TEXT(C30,"m월"),"",LOWER(TEXT(D30,"m월")))</x:f>
@@ -3696,7 +3650,7 @@
       </x:c>
       <x:c r="J28" s="8" t="str">
         <x:f>LOWER(TEXT(J30,"m월"))</x:f>
-        <x:v>10월</x:v>
+        <x:v>4월</x:v>
       </x:c>
       <x:c r="K28" s="8" t="str">
         <x:f>IF(TEXT(K30,"m월")=TEXT(J30,"m월"),"",LOWER(TEXT(K30,"m월")))</x:f>
@@ -3704,7 +3658,7 @@
       </x:c>
       <x:c r="L28" s="8" t="str">
         <x:f>IF(TEXT(L30,"m월")=TEXT(K30,"m월"),"",LOWER(TEXT(L30,"m월")))</x:f>
-        <x:v/>
+        <x:v>5월</x:v>
       </x:c>
       <x:c r="M28" s="8" t="str">
         <x:f>IF(TEXT(M30,"m월")=TEXT(L30,"m월"),"",LOWER(TEXT(M30,"m월")))</x:f>
@@ -3724,7 +3678,7 @@
       </x:c>
       <x:c r="Q28" s="7" t="str">
         <x:f>LOWER(TEXT(Q30,"m월"))</x:f>
-        <x:v>10월</x:v>
+        <x:v>5월</x:v>
       </x:c>
       <x:c r="R28" s="7" t="str">
         <x:f>IF(TEXT(R30,"m월")=TEXT(Q30,"m월"),"",LOWER(TEXT(R30,"m월")))</x:f>
@@ -3732,7 +3686,7 @@
       </x:c>
       <x:c r="S28" s="7" t="str">
         <x:f>IF(TEXT(S30,"m월")=TEXT(R30,"m월"),"",LOWER(TEXT(S30,"m월")))</x:f>
-        <x:v>11월</x:v>
+        <x:v/>
       </x:c>
       <x:c r="T28" s="7" t="str">
         <x:f>IF(TEXT(T30,"m월")=TEXT(S30,"m월"),"",LOWER(TEXT(T30,"m월")))</x:f>
@@ -3752,7 +3706,7 @@
       </x:c>
       <x:c r="X28" s="8" t="str">
         <x:f>LOWER(TEXT(X30,"m월"))</x:f>
-        <x:v>11월</x:v>
+        <x:v>5월</x:v>
       </x:c>
       <x:c r="Y28" s="8" t="str">
         <x:f>IF(TEXT(Y30,"m월")=TEXT(X30,"m월"),"",LOWER(TEXT(Y30,"m월")))</x:f>
@@ -3898,115 +3852,115 @@
       <x:c r="B30" s="13"/>
       <x:c r="C30" s="11">
         <x:f>AD24+1</x:f>
-        <x:v>45215</x:v>
+        <x:v>45404</x:v>
       </x:c>
       <x:c r="D30" s="11">
         <x:f>C30+1</x:f>
-        <x:v>45216</x:v>
+        <x:v>45405</x:v>
       </x:c>
       <x:c r="E30" s="11">
         <x:f>D30+1</x:f>
-        <x:v>45217</x:v>
+        <x:v>45406</x:v>
       </x:c>
       <x:c r="F30" s="11">
         <x:f>E30+1</x:f>
-        <x:v>45218</x:v>
+        <x:v>45407</x:v>
       </x:c>
       <x:c r="G30" s="11">
         <x:f>F30+1</x:f>
-        <x:v>45219</x:v>
+        <x:v>45408</x:v>
       </x:c>
       <x:c r="H30" s="11">
         <x:f>G30+1</x:f>
-        <x:v>45220</x:v>
+        <x:v>45409</x:v>
       </x:c>
       <x:c r="I30" s="11">
         <x:f>H30+1</x:f>
-        <x:v>45221</x:v>
+        <x:v>45410</x:v>
       </x:c>
       <x:c r="J30" s="12">
         <x:f>I30+1</x:f>
-        <x:v>45222</x:v>
+        <x:v>45411</x:v>
       </x:c>
       <x:c r="K30" s="12">
         <x:f>J30+1</x:f>
-        <x:v>45223</x:v>
+        <x:v>45412</x:v>
       </x:c>
       <x:c r="L30" s="12">
         <x:f>K30+1</x:f>
-        <x:v>45224</x:v>
+        <x:v>45413</x:v>
       </x:c>
       <x:c r="M30" s="12">
         <x:f>L30+1</x:f>
-        <x:v>45225</x:v>
+        <x:v>45414</x:v>
       </x:c>
       <x:c r="N30" s="12">
         <x:f>M30+1</x:f>
-        <x:v>45226</x:v>
+        <x:v>45415</x:v>
       </x:c>
       <x:c r="O30" s="12">
         <x:f>N30+1</x:f>
-        <x:v>45227</x:v>
+        <x:v>45416</x:v>
       </x:c>
       <x:c r="P30" s="12">
         <x:f>O30+1</x:f>
-        <x:v>45228</x:v>
+        <x:v>45417</x:v>
       </x:c>
       <x:c r="Q30" s="11">
         <x:f>P30+1</x:f>
-        <x:v>45229</x:v>
+        <x:v>45418</x:v>
       </x:c>
       <x:c r="R30" s="11">
         <x:f>Q30+1</x:f>
-        <x:v>45230</x:v>
+        <x:v>45419</x:v>
       </x:c>
       <x:c r="S30" s="11">
         <x:f>R30+1</x:f>
-        <x:v>45231</x:v>
+        <x:v>45420</x:v>
       </x:c>
       <x:c r="T30" s="11">
         <x:f>S30+1</x:f>
-        <x:v>45232</x:v>
+        <x:v>45421</x:v>
       </x:c>
       <x:c r="U30" s="11">
         <x:f>T30+1</x:f>
-        <x:v>45233</x:v>
+        <x:v>45422</x:v>
       </x:c>
       <x:c r="V30" s="11">
         <x:f>U30+1</x:f>
-        <x:v>45234</x:v>
+        <x:v>45423</x:v>
       </x:c>
       <x:c r="W30" s="11">
         <x:f>V30+1</x:f>
-        <x:v>45235</x:v>
+        <x:v>45424</x:v>
       </x:c>
       <x:c r="X30" s="12">
         <x:f>W30+1</x:f>
-        <x:v>45236</x:v>
+        <x:v>45425</x:v>
       </x:c>
       <x:c r="Y30" s="12">
         <x:f>X30+1</x:f>
-        <x:v>45237</x:v>
+        <x:v>45426</x:v>
       </x:c>
       <x:c r="Z30" s="12">
         <x:f>Y30+1</x:f>
-        <x:v>45238</x:v>
+        <x:v>45427</x:v>
       </x:c>
       <x:c r="AA30" s="12">
         <x:f>Z30+1</x:f>
-        <x:v>45239</x:v>
+        <x:v>45428</x:v>
       </x:c>
       <x:c r="AB30" s="12">
         <x:f>AA30+1</x:f>
-        <x:v>45240</x:v>
+        <x:v>45429</x:v>
       </x:c>
       <x:c r="AC30" s="12">
         <x:f>AB30+1</x:f>
-        <x:v>45241</x:v>
+        <x:v>45430</x:v>
       </x:c>
       <x:c r="AD30" s="12">
         <x:f>AC30+1</x:f>
-        <x:v>45242</x:v>
+        <x:v>45431</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:30" customHeight="1">
@@ -4115,7 +4069,7 @@
       <x:c r="B34" s="13"/>
       <x:c r="C34" s="6" t="str">
         <x:f>LOWER(TEXT(C36,"m월"))</x:f>
-        <x:v>11월</x:v>
+        <x:v>5월</x:v>
       </x:c>
       <x:c r="D34" s="7" t="str">
         <x:f>IF(TEXT(D36,"m월")=TEXT(C36,"m월"),"",LOWER(TEXT(D36,"m월")))</x:f>
@@ -4143,7 +4097,7 @@
       </x:c>
       <x:c r="J34" s="8" t="str">
         <x:f>LOWER(TEXT(J36,"m월"))</x:f>
-        <x:v>11월</x:v>
+        <x:v>5월</x:v>
       </x:c>
       <x:c r="K34" s="8" t="str">
         <x:f>IF(TEXT(K36,"m월")=TEXT(J36,"m월"),"",LOWER(TEXT(K36,"m월")))</x:f>
@@ -4163,7 +4117,7 @@
       </x:c>
       <x:c r="O34" s="8" t="str">
         <x:f>IF(TEXT(O36,"m월")=TEXT(N36,"m월"),"",LOWER(TEXT(O36,"m월")))</x:f>
-        <x:v/>
+        <x:v>6월</x:v>
       </x:c>
       <x:c r="P34" s="8" t="str">
         <x:f>IF(TEXT(P36,"m월")=TEXT(O36,"m월"),"",LOWER(TEXT(P36,"m월")))</x:f>
@@ -4171,7 +4125,7 @@
       </x:c>
       <x:c r="Q34" s="7" t="str">
         <x:f>LOWER(TEXT(Q36,"m월"))</x:f>
-        <x:v>11월</x:v>
+        <x:v>6월</x:v>
       </x:c>
       <x:c r="R34" s="7" t="str">
         <x:f>IF(TEXT(R36,"m월")=TEXT(Q36,"m월"),"",LOWER(TEXT(R36,"m월")))</x:f>
@@ -4187,7 +4141,7 @@
       </x:c>
       <x:c r="U34" s="7" t="str">
         <x:f>IF(TEXT(U36,"m월")=TEXT(T36,"m월"),"",LOWER(TEXT(U36,"m월")))</x:f>
-        <x:v>12월</x:v>
+        <x:v/>
       </x:c>
       <x:c r="V34" s="7" t="str">
         <x:f>IF(TEXT(V36,"m월")=TEXT(U36,"m월"),"",LOWER(TEXT(V36,"m월")))</x:f>
@@ -4199,7 +4153,7 @@
       </x:c>
       <x:c r="X34" s="8" t="str">
         <x:f>LOWER(TEXT(X36,"m월"))</x:f>
-        <x:v>12월</x:v>
+        <x:v>6월</x:v>
       </x:c>
       <x:c r="Y34" s="8" t="str">
         <x:f>IF(TEXT(Y36,"m월")=TEXT(X36,"m월"),"",LOWER(TEXT(Y36,"m월")))</x:f>
@@ -4345,115 +4299,115 @@
       <x:c r="B36" s="13"/>
       <x:c r="C36" s="11">
         <x:f>AD30+1</x:f>
-        <x:v>45243</x:v>
+        <x:v>45432</x:v>
       </x:c>
       <x:c r="D36" s="11">
         <x:f>C36+1</x:f>
-        <x:v>45244</x:v>
+        <x:v>45433</x:v>
       </x:c>
       <x:c r="E36" s="11">
         <x:f>D36+1</x:f>
-        <x:v>45245</x:v>
+        <x:v>45434</x:v>
       </x:c>
       <x:c r="F36" s="11">
         <x:f>E36+1</x:f>
-        <x:v>45246</x:v>
+        <x:v>45435</x:v>
       </x:c>
       <x:c r="G36" s="11">
         <x:f>F36+1</x:f>
-        <x:v>45247</x:v>
+        <x:v>45436</x:v>
       </x:c>
       <x:c r="H36" s="11">
         <x:f>G36+1</x:f>
-        <x:v>45248</x:v>
+        <x:v>45437</x:v>
       </x:c>
       <x:c r="I36" s="11">
         <x:f>H36+1</x:f>
-        <x:v>45249</x:v>
+        <x:v>45438</x:v>
       </x:c>
       <x:c r="J36" s="12">
         <x:f>I36+1</x:f>
-        <x:v>45250</x:v>
+        <x:v>45439</x:v>
       </x:c>
       <x:c r="K36" s="12">
         <x:f>J36+1</x:f>
-        <x:v>45251</x:v>
+        <x:v>45440</x:v>
       </x:c>
       <x:c r="L36" s="12">
         <x:f>K36+1</x:f>
-        <x:v>45252</x:v>
+        <x:v>45441</x:v>
       </x:c>
       <x:c r="M36" s="12">
         <x:f>L36+1</x:f>
-        <x:v>45253</x:v>
+        <x:v>45442</x:v>
       </x:c>
       <x:c r="N36" s="12">
         <x:f>M36+1</x:f>
-        <x:v>45254</x:v>
+        <x:v>45443</x:v>
       </x:c>
       <x:c r="O36" s="12">
         <x:f>N36+1</x:f>
-        <x:v>45255</x:v>
+        <x:v>45444</x:v>
       </x:c>
       <x:c r="P36" s="12">
         <x:f>O36+1</x:f>
-        <x:v>45256</x:v>
+        <x:v>45445</x:v>
       </x:c>
       <x:c r="Q36" s="11">
         <x:f>P36+1</x:f>
-        <x:v>45257</x:v>
+        <x:v>45446</x:v>
       </x:c>
       <x:c r="R36" s="11">
         <x:f>Q36+1</x:f>
-        <x:v>45258</x:v>
+        <x:v>45447</x:v>
       </x:c>
       <x:c r="S36" s="11">
         <x:f>R36+1</x:f>
-        <x:v>45259</x:v>
+        <x:v>45448</x:v>
       </x:c>
       <x:c r="T36" s="11">
         <x:f>S36+1</x:f>
-        <x:v>45260</x:v>
+        <x:v>45449</x:v>
       </x:c>
       <x:c r="U36" s="11">
         <x:f>T36+1</x:f>
-        <x:v>45261</x:v>
+        <x:v>45450</x:v>
       </x:c>
       <x:c r="V36" s="11">
         <x:f>U36+1</x:f>
-        <x:v>45262</x:v>
+        <x:v>45451</x:v>
       </x:c>
       <x:c r="W36" s="11">
         <x:f>V36+1</x:f>
-        <x:v>45263</x:v>
+        <x:v>45452</x:v>
       </x:c>
       <x:c r="X36" s="12">
         <x:f>W36+1</x:f>
-        <x:v>45264</x:v>
+        <x:v>45453</x:v>
       </x:c>
       <x:c r="Y36" s="12">
         <x:f>X36+1</x:f>
-        <x:v>45265</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="Z36" s="12">
         <x:f>Y36+1</x:f>
-        <x:v>45266</x:v>
+        <x:v>45455</x:v>
       </x:c>
       <x:c r="AA36" s="12">
         <x:f>Z36+1</x:f>
-        <x:v>45267</x:v>
+        <x:v>45456</x:v>
       </x:c>
       <x:c r="AB36" s="12">
         <x:f>AA36+1</x:f>
-        <x:v>45268</x:v>
+        <x:v>45457</x:v>
       </x:c>
       <x:c r="AC36" s="12">
         <x:f>AB36+1</x:f>
-        <x:v>45269</x:v>
+        <x:v>45458</x:v>
       </x:c>
       <x:c r="AD36" s="12">
         <x:f>AC36+1</x:f>
-        <x:v>45270</x:v>
+        <x:v>45459</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:30" customHeight="1">
@@ -4562,7 +4516,7 @@
       <x:c r="B40" s="13"/>
       <x:c r="C40" s="6" t="str">
         <x:f>LOWER(TEXT(C42,"m월"))</x:f>
-        <x:v>12월</x:v>
+        <x:v>6월</x:v>
       </x:c>
       <x:c r="D40" s="7" t="str">
         <x:f>IF(TEXT(D42,"m월")=TEXT(C42,"m월"),"",LOWER(TEXT(D42,"m월")))</x:f>
@@ -4590,7 +4544,7 @@
       </x:c>
       <x:c r="J40" s="8" t="str">
         <x:f>LOWER(TEXT(J42,"m월"))</x:f>
-        <x:v>12월</x:v>
+        <x:v>6월</x:v>
       </x:c>
       <x:c r="K40" s="8" t="str">
         <x:f>IF(TEXT(K42,"m월")=TEXT(J42,"m월"),"",LOWER(TEXT(K42,"m월")))</x:f>
@@ -4618,7 +4572,7 @@
       </x:c>
       <x:c r="Q40" s="7" t="str">
         <x:f>LOWER(TEXT(Q42,"m월"))</x:f>
-        <x:v>12월</x:v>
+        <x:v>7월</x:v>
       </x:c>
       <x:c r="R40" s="7" t="str">
         <x:f>IF(TEXT(R42,"m월")=TEXT(Q42,"m월"),"",LOWER(TEXT(R42,"m월")))</x:f>
@@ -4646,7 +4600,7 @@
       </x:c>
       <x:c r="X40" s="8" t="str">
         <x:f>LOWER(TEXT(X42,"m월"))</x:f>
-        <x:v>1월</x:v>
+        <x:v>7월</x:v>
       </x:c>
       <x:c r="Y40" s="8" t="str">
         <x:f>IF(TEXT(Y42,"m월")=TEXT(X42,"m월"),"",LOWER(TEXT(Y42,"m월")))</x:f>
@@ -4792,115 +4746,115 @@
       <x:c r="B42" s="13"/>
       <x:c r="C42" s="11">
         <x:f>AD36+1</x:f>
-        <x:v>45271</x:v>
+        <x:v>45460</x:v>
       </x:c>
       <x:c r="D42" s="11">
         <x:f>C42+1</x:f>
-        <x:v>45272</x:v>
+        <x:v>45461</x:v>
       </x:c>
       <x:c r="E42" s="11">
         <x:f>D42+1</x:f>
-        <x:v>45273</x:v>
+        <x:v>45462</x:v>
       </x:c>
       <x:c r="F42" s="11">
         <x:f>E42+1</x:f>
-        <x:v>45274</x:v>
+        <x:v>45463</x:v>
       </x:c>
       <x:c r="G42" s="11">
         <x:f>F42+1</x:f>
-        <x:v>45275</x:v>
+        <x:v>45464</x:v>
       </x:c>
       <x:c r="H42" s="11">
         <x:f>G42+1</x:f>
-        <x:v>45276</x:v>
+        <x:v>45465</x:v>
       </x:c>
       <x:c r="I42" s="11">
         <x:f>H42+1</x:f>
-        <x:v>45277</x:v>
+        <x:v>45466</x:v>
       </x:c>
       <x:c r="J42" s="12">
         <x:f>I42+1</x:f>
-        <x:v>45278</x:v>
+        <x:v>45467</x:v>
       </x:c>
       <x:c r="K42" s="12">
         <x:f>J42+1</x:f>
-        <x:v>45279</x:v>
+        <x:v>45468</x:v>
       </x:c>
       <x:c r="L42" s="12">
         <x:f>K42+1</x:f>
-        <x:v>45280</x:v>
+        <x:v>45469</x:v>
       </x:c>
       <x:c r="M42" s="12">
         <x:f>L42+1</x:f>
-        <x:v>45281</x:v>
+        <x:v>45470</x:v>
       </x:c>
       <x:c r="N42" s="12">
         <x:f>M42+1</x:f>
-        <x:v>45282</x:v>
+        <x:v>45471</x:v>
       </x:c>
       <x:c r="O42" s="12">
         <x:f>N42+1</x:f>
-        <x:v>45283</x:v>
+        <x:v>45472</x:v>
       </x:c>
       <x:c r="P42" s="12">
         <x:f>O42+1</x:f>
-        <x:v>45284</x:v>
+        <x:v>45473</x:v>
       </x:c>
       <x:c r="Q42" s="11">
         <x:f>P42+1</x:f>
-        <x:v>45285</x:v>
+        <x:v>45474</x:v>
       </x:c>
       <x:c r="R42" s="11">
         <x:f>Q42+1</x:f>
-        <x:v>45286</x:v>
+        <x:v>45475</x:v>
       </x:c>
       <x:c r="S42" s="11">
         <x:f>R42+1</x:f>
-        <x:v>45287</x:v>
+        <x:v>45476</x:v>
       </x:c>
       <x:c r="T42" s="11">
         <x:f>S42+1</x:f>
-        <x:v>45288</x:v>
+        <x:v>45477</x:v>
       </x:c>
       <x:c r="U42" s="11">
         <x:f>T42+1</x:f>
-        <x:v>45289</x:v>
+        <x:v>45478</x:v>
       </x:c>
       <x:c r="V42" s="11">
         <x:f>U42+1</x:f>
-        <x:v>45290</x:v>
+        <x:v>45479</x:v>
       </x:c>
       <x:c r="W42" s="11">
         <x:f>V42+1</x:f>
-        <x:v>45291</x:v>
+        <x:v>45480</x:v>
       </x:c>
       <x:c r="X42" s="12">
         <x:f>W42+1</x:f>
-        <x:v>45292</x:v>
+        <x:v>45481</x:v>
       </x:c>
       <x:c r="Y42" s="12">
         <x:f>X42+1</x:f>
-        <x:v>45293</x:v>
+        <x:v>45482</x:v>
       </x:c>
       <x:c r="Z42" s="12">
         <x:f>Y42+1</x:f>
-        <x:v>45294</x:v>
+        <x:v>45483</x:v>
       </x:c>
       <x:c r="AA42" s="12">
         <x:f>Z42+1</x:f>
-        <x:v>45295</x:v>
+        <x:v>45484</x:v>
       </x:c>
       <x:c r="AB42" s="12">
         <x:f>AA42+1</x:f>
-        <x:v>45296</x:v>
+        <x:v>45485</x:v>
       </x:c>
       <x:c r="AC42" s="12">
         <x:f>AB42+1</x:f>
-        <x:v>45297</x:v>
+        <x:v>45486</x:v>
       </x:c>
       <x:c r="AD42" s="12">
         <x:f>AC42+1</x:f>
-        <x:v>45298</x:v>
+        <x:v>45487</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="2:30" customHeight="1">
@@ -5006,11 +4960,9 @@
       <x:c r="AD45" s="14"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="4">
+  <x:mergeCells count="2">
     <x:mergeCell ref="B1:AD1"/>
     <x:mergeCell ref="C2:E2"/>
-    <x:mergeCell ref="D7:K7"/>
-    <x:mergeCell ref="E8:K8"/>
   </x:mergeCells>
   <x:conditionalFormatting sqref="C5:AD6">
     <x:cfRule type="expression" dxfId="6" priority="7">

--- a/작업일지/양재성/졸작 계획서.xlsx
+++ b/작업일지/양재성/졸작 계획서.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.9866"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="21165" windowHeight="7515"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId4"/>
@@ -17,30 +17,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="19">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="29">
   <x:si>
-    <x:t>6월</x:t>
+    <x:t>슬라임 액터 구현된 기능 정리</x:t>
   </x:si>
   <x:si>
-    <x:t>일</x:t>
+    <x:t>인간 액터 빨아들이기 효과 물리 완성</x:t>
   </x:si>
   <x:si>
-    <x:t>월</x:t>
+    <x:t>인간 액터의 빨아들이기 효과 기본 완성</x:t>
   </x:si>
   <x:si>
-    <x:t>화</x:t>
+    <x:t>슬라임 액터 기능 기본 완성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인간 액터 기능 기본 완성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵 내부 오브젝트 정리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵 생성 시 오브젝트 생성 확인</x:t>
   </x:si>
   <x:si>
     <x:t>수</x:t>
   </x:si>
   <x:si>
-    <x:t>1월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토</x:t>
+    <x:t>6월</x:t>
   </x:si>
   <x:si>
     <x:t>목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화</x:t>
   </x:si>
   <x:si>
     <x:t>금</x:t>
@@ -49,22 +64,31 @@
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>3월</x:t>
+    <x:t>5월</x:t>
   </x:si>
   <x:si>
     <x:t>4월</x:t>
   </x:si>
   <x:si>
-    <x:t>5월</x:t>
+    <x:t>1월</x:t>
   </x:si>
   <x:si>
-    <x:t>2월</x:t>
+    <x:t>월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토</x:t>
   </x:si>
   <x:si>
     <x:t>7월</x:t>
   </x:si>
   <x:si>
+    <x:t>일</x:t>
+  </x:si>
+  <x:si>
     <x:t>졸업작품 제안서 발표 계획서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담당자:양재성</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> 시작 날짜:</x:t>
@@ -73,7 +97,13 @@
     <x:t>내용입력</x:t>
   </x:si>
   <x:si>
-    <x:t>담당자:노창현</x:t>
+    <x:t>슬라임 액터 물체 상호작용 완성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>셀 내부 생성될 오브젝트 패턴 만들기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슬라임 액터에 상호작용 가능한 액터 추가</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -429,7 +459,7 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="36">
+  <x:fills count="45">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -640,8 +670,62 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffefe5"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffe5e5ff"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffc6e9fb"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffd8ffd8"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ff65ff65"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ff19ff19"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffb2ffb2"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffd8ff"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffff65ff"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="11">
+  <x:borders count="13">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -796,6 +880,34 @@
         <x:color rgb="ffd9d9d9"/>
       </x:bottom>
     </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ffffffff"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ffffffff"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ffffffff"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ffd9d9d9"/>
+      </x:bottom>
+    </x:border>
   </x:borders>
   <x:cellStyleXfs count="52">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -985,7 +1097,7 @@
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="23">
+  <x:cellXfs count="35">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
@@ -1148,6 +1260,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="general" vertical="center" indent="1"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="general" vertical="center" indent="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="left" vertical="bottom" indent="1"/>
           <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1174,14 +1299,157 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="general" vertical="center" indent="1"/>
           <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="general" vertical="center" indent="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="general" vertical="center" indent="1"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="general" vertical="center" indent="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="38" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="38" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1771,7 +2039,7 @@
   <x:dimension ref="B1:AD45"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="AH9" activeCellId="0" sqref="AH9:AH9"/>
+      <x:selection activeCell="K3" activeCellId="0" sqref="K3:K3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="30" customHeight="1"/>
@@ -1784,48 +2052,48 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <x:c r="B1" s="20" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C1" s="20"/>
-      <x:c r="D1" s="20"/>
-      <x:c r="E1" s="20"/>
-      <x:c r="F1" s="20"/>
-      <x:c r="G1" s="20"/>
-      <x:c r="H1" s="20"/>
-      <x:c r="I1" s="20"/>
-      <x:c r="J1" s="20"/>
-      <x:c r="K1" s="20"/>
-      <x:c r="L1" s="20"/>
-      <x:c r="M1" s="20"/>
-      <x:c r="N1" s="20"/>
-      <x:c r="O1" s="20"/>
-      <x:c r="P1" s="20"/>
-      <x:c r="Q1" s="20"/>
-      <x:c r="R1" s="20"/>
-      <x:c r="S1" s="20"/>
-      <x:c r="T1" s="20"/>
-      <x:c r="U1" s="20"/>
-      <x:c r="V1" s="20"/>
-      <x:c r="W1" s="20"/>
-      <x:c r="X1" s="20"/>
-      <x:c r="Y1" s="20"/>
-      <x:c r="Z1" s="20"/>
-      <x:c r="AA1" s="20"/>
-      <x:c r="AB1" s="20"/>
-      <x:c r="AC1" s="20"/>
-      <x:c r="AD1" s="20"/>
+      <x:c r="B1" s="21" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C1" s="21"/>
+      <x:c r="D1" s="21"/>
+      <x:c r="E1" s="21"/>
+      <x:c r="F1" s="21"/>
+      <x:c r="G1" s="21"/>
+      <x:c r="H1" s="21"/>
+      <x:c r="I1" s="21"/>
+      <x:c r="J1" s="21"/>
+      <x:c r="K1" s="21"/>
+      <x:c r="L1" s="21"/>
+      <x:c r="M1" s="21"/>
+      <x:c r="N1" s="21"/>
+      <x:c r="O1" s="21"/>
+      <x:c r="P1" s="21"/>
+      <x:c r="Q1" s="21"/>
+      <x:c r="R1" s="21"/>
+      <x:c r="S1" s="21"/>
+      <x:c r="T1" s="21"/>
+      <x:c r="U1" s="21"/>
+      <x:c r="V1" s="21"/>
+      <x:c r="W1" s="21"/>
+      <x:c r="X1" s="21"/>
+      <x:c r="Y1" s="21"/>
+      <x:c r="Z1" s="21"/>
+      <x:c r="AA1" s="21"/>
+      <x:c r="AB1" s="21"/>
+      <x:c r="AC1" s="21"/>
+      <x:c r="AD1" s="21"/>
     </x:row>
     <x:row r="2" spans="2:5" ht="24.75" customHeight="1">
       <x:c r="B2" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C2" s="21">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C2" s="22">
         <x:f>DATEVALUE("2024/01/01")</x:f>
         <x:v>45292</x:v>
       </x:c>
-      <x:c r="D2" s="21"/>
-      <x:c r="E2" s="21"/>
+      <x:c r="D2" s="22"/>
+      <x:c r="E2" s="22"/>
     </x:row>
     <x:row r="3" ht="12.75" customHeight="1"/>
     <x:row r="4" spans="2:30" ht="18.75" customHeight="1">
@@ -2060,7 +2328,7 @@
     </x:row>
     <x:row r="6" spans="2:30" ht="18" customHeight="1">
       <x:c r="B6" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C6" s="11">
         <x:f>C2</x:f>
@@ -2180,34 +2448,40 @@
         <x:f>TEXT("내용입력","aaa")</x:f>
         <x:v>내용입력</x:v>
       </x:c>
-      <x:c r="C7" s="15"/>
-      <x:c r="D7" s="16"/>
-      <x:c r="E7" s="15"/>
-      <x:c r="F7" s="16"/>
-      <x:c r="G7" s="15"/>
-      <x:c r="H7" s="16"/>
-      <x:c r="I7" s="15"/>
-      <x:c r="J7" s="16"/>
-      <x:c r="K7" s="15"/>
-      <x:c r="L7" s="14"/>
-      <x:c r="M7" s="15"/>
-      <x:c r="N7" s="14"/>
-      <x:c r="O7" s="15"/>
-      <x:c r="P7" s="14"/>
+      <x:c r="C7" s="26" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D7" s="26"/>
+      <x:c r="E7" s="26"/>
+      <x:c r="F7" s="26"/>
+      <x:c r="G7" s="26"/>
+      <x:c r="H7" s="26"/>
+      <x:c r="I7" s="26"/>
+      <x:c r="J7" s="26" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K7" s="26"/>
+      <x:c r="L7" s="26"/>
+      <x:c r="M7" s="26"/>
+      <x:c r="N7" s="26"/>
+      <x:c r="O7" s="26"/>
+      <x:c r="P7" s="26"/>
       <x:c r="Q7" s="15"/>
-      <x:c r="R7" s="14"/>
+      <x:c r="R7" s="23"/>
       <x:c r="S7" s="15"/>
-      <x:c r="T7" s="14"/>
+      <x:c r="T7" s="23"/>
       <x:c r="U7" s="15"/>
-      <x:c r="V7" s="14"/>
+      <x:c r="V7" s="23"/>
       <x:c r="W7" s="15"/>
-      <x:c r="X7" s="14"/>
-      <x:c r="Y7" s="15"/>
-      <x:c r="Z7" s="14"/>
-      <x:c r="AA7" s="15"/>
-      <x:c r="AB7" s="14"/>
-      <x:c r="AC7" s="15"/>
-      <x:c r="AD7" s="14"/>
+      <x:c r="X7" s="27" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Y7" s="27"/>
+      <x:c r="Z7" s="27"/>
+      <x:c r="AA7" s="27"/>
+      <x:c r="AB7" s="27"/>
+      <x:c r="AC7" s="27"/>
+      <x:c r="AD7" s="27"/>
     </x:row>
     <x:row r="8" spans="2:30" customHeight="1">
       <x:c r="B8" s="13" t="str">
@@ -2216,25 +2490,29 @@
       </x:c>
       <x:c r="C8" s="15"/>
       <x:c r="D8" s="16"/>
-      <x:c r="E8" s="22"/>
+      <x:c r="E8" s="20"/>
       <x:c r="F8" s="16"/>
-      <x:c r="G8" s="22"/>
+      <x:c r="G8" s="20"/>
       <x:c r="H8" s="16"/>
-      <x:c r="I8" s="22"/>
-      <x:c r="J8" s="16"/>
-      <x:c r="K8" s="22"/>
-      <x:c r="L8" s="14"/>
-      <x:c r="M8" s="15"/>
-      <x:c r="N8" s="16"/>
-      <x:c r="O8" s="15"/>
-      <x:c r="P8" s="14"/>
-      <x:c r="Q8" s="15"/>
-      <x:c r="R8" s="14"/>
-      <x:c r="S8" s="15"/>
-      <x:c r="T8" s="14"/>
-      <x:c r="U8" s="15"/>
-      <x:c r="V8" s="14"/>
-      <x:c r="W8" s="15"/>
+      <x:c r="I8" s="20"/>
+      <x:c r="J8" s="28" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K8" s="28"/>
+      <x:c r="L8" s="28"/>
+      <x:c r="M8" s="28"/>
+      <x:c r="N8" s="28"/>
+      <x:c r="O8" s="28"/>
+      <x:c r="P8" s="28"/>
+      <x:c r="Q8" s="28" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R8" s="28"/>
+      <x:c r="S8" s="28"/>
+      <x:c r="T8" s="28"/>
+      <x:c r="U8" s="28"/>
+      <x:c r="V8" s="28"/>
+      <x:c r="W8" s="28"/>
       <x:c r="X8" s="14"/>
       <x:c r="Y8" s="15"/>
       <x:c r="Z8" s="14"/>
@@ -2627,27 +2905,33 @@
         <x:f>TEXT("내용입력","aaa")</x:f>
         <x:v>내용입력</x:v>
       </x:c>
-      <x:c r="C13" s="15"/>
-      <x:c r="D13" s="14"/>
-      <x:c r="E13" s="15"/>
-      <x:c r="F13" s="14"/>
-      <x:c r="G13" s="15"/>
-      <x:c r="H13" s="14"/>
-      <x:c r="I13" s="15"/>
-      <x:c r="J13" s="14"/>
-      <x:c r="K13" s="15"/>
-      <x:c r="L13" s="14"/>
-      <x:c r="M13" s="15"/>
-      <x:c r="N13" s="14"/>
-      <x:c r="O13" s="15"/>
-      <x:c r="P13" s="14"/>
-      <x:c r="Q13" s="15"/>
-      <x:c r="R13" s="14"/>
-      <x:c r="S13" s="15"/>
-      <x:c r="T13" s="14"/>
-      <x:c r="U13" s="15"/>
-      <x:c r="V13" s="14"/>
-      <x:c r="W13" s="15"/>
+      <x:c r="C13" s="29" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D13" s="29"/>
+      <x:c r="E13" s="29"/>
+      <x:c r="F13" s="29"/>
+      <x:c r="G13" s="29"/>
+      <x:c r="H13" s="29"/>
+      <x:c r="I13" s="29"/>
+      <x:c r="J13" s="30" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K13" s="30"/>
+      <x:c r="L13" s="30"/>
+      <x:c r="M13" s="30"/>
+      <x:c r="N13" s="30"/>
+      <x:c r="O13" s="30"/>
+      <x:c r="P13" s="30"/>
+      <x:c r="Q13" s="30" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="R13" s="30"/>
+      <x:c r="S13" s="30"/>
+      <x:c r="T13" s="30"/>
+      <x:c r="U13" s="30"/>
+      <x:c r="V13" s="30"/>
+      <x:c r="W13" s="30"/>
       <x:c r="X13" s="14"/>
       <x:c r="Y13" s="15"/>
       <x:c r="Z13" s="14"/>
@@ -2668,27 +2952,31 @@
       <x:c r="G14" s="15"/>
       <x:c r="H14" s="14"/>
       <x:c r="I14" s="15"/>
-      <x:c r="J14" s="14"/>
+      <x:c r="J14" s="25"/>
       <x:c r="K14" s="15"/>
-      <x:c r="L14" s="14"/>
+      <x:c r="L14" s="25"/>
       <x:c r="M14" s="15"/>
-      <x:c r="N14" s="14"/>
+      <x:c r="N14" s="25"/>
       <x:c r="O14" s="15"/>
-      <x:c r="P14" s="14"/>
-      <x:c r="Q14" s="15"/>
-      <x:c r="R14" s="14"/>
-      <x:c r="S14" s="15"/>
-      <x:c r="T14" s="14"/>
-      <x:c r="U14" s="15"/>
-      <x:c r="V14" s="14"/>
-      <x:c r="W14" s="15"/>
-      <x:c r="X14" s="14"/>
-      <x:c r="Y14" s="15"/>
-      <x:c r="Z14" s="14"/>
-      <x:c r="AA14" s="15"/>
-      <x:c r="AB14" s="14"/>
-      <x:c r="AC14" s="15"/>
-      <x:c r="AD14" s="14"/>
+      <x:c r="P14" s="25"/>
+      <x:c r="Q14" s="32" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R14" s="32"/>
+      <x:c r="S14" s="32"/>
+      <x:c r="T14" s="32"/>
+      <x:c r="U14" s="32"/>
+      <x:c r="V14" s="32"/>
+      <x:c r="W14" s="32"/>
+      <x:c r="X14" s="32" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Y14" s="32"/>
+      <x:c r="Z14" s="32"/>
+      <x:c r="AA14" s="32"/>
+      <x:c r="AB14" s="32"/>
+      <x:c r="AC14" s="32"/>
+      <x:c r="AD14" s="32"/>
     </x:row>
     <x:row r="15" spans="2:30" customHeight="1">
       <x:c r="B15" s="13" t="str">
@@ -3074,34 +3362,42 @@
         <x:f>TEXT("내용입력","aaa")</x:f>
         <x:v>내용입력</x:v>
       </x:c>
-      <x:c r="C19" s="15"/>
-      <x:c r="D19" s="14"/>
-      <x:c r="E19" s="15"/>
-      <x:c r="F19" s="14"/>
-      <x:c r="G19" s="15"/>
-      <x:c r="H19" s="14"/>
-      <x:c r="I19" s="15"/>
-      <x:c r="J19" s="14"/>
-      <x:c r="K19" s="15"/>
-      <x:c r="L19" s="14"/>
-      <x:c r="M19" s="15"/>
-      <x:c r="N19" s="14"/>
-      <x:c r="O19" s="15"/>
-      <x:c r="P19" s="14"/>
-      <x:c r="Q19" s="15"/>
-      <x:c r="R19" s="14"/>
-      <x:c r="S19" s="15"/>
-      <x:c r="T19" s="14"/>
-      <x:c r="U19" s="15"/>
-      <x:c r="V19" s="14"/>
-      <x:c r="W19" s="15"/>
-      <x:c r="X19" s="14"/>
-      <x:c r="Y19" s="15"/>
-      <x:c r="Z19" s="14"/>
-      <x:c r="AA19" s="15"/>
-      <x:c r="AB19" s="14"/>
-      <x:c r="AC19" s="15"/>
-      <x:c r="AD19" s="14"/>
+      <x:c r="C19" s="31" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D19" s="31"/>
+      <x:c r="E19" s="31"/>
+      <x:c r="F19" s="31"/>
+      <x:c r="G19" s="31"/>
+      <x:c r="H19" s="31"/>
+      <x:c r="I19" s="31"/>
+      <x:c r="J19" s="33" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K19" s="33"/>
+      <x:c r="L19" s="33"/>
+      <x:c r="M19" s="33"/>
+      <x:c r="N19" s="33"/>
+      <x:c r="O19" s="33"/>
+      <x:c r="P19" s="33"/>
+      <x:c r="Q19" s="34" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="R19" s="34"/>
+      <x:c r="S19" s="34"/>
+      <x:c r="T19" s="34"/>
+      <x:c r="U19" s="34"/>
+      <x:c r="V19" s="34"/>
+      <x:c r="W19" s="34"/>
+      <x:c r="X19" s="34" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Y19" s="34"/>
+      <x:c r="Z19" s="34"/>
+      <x:c r="AA19" s="34"/>
+      <x:c r="AB19" s="34"/>
+      <x:c r="AC19" s="34"/>
+      <x:c r="AD19" s="34"/>
     </x:row>
     <x:row r="20" spans="2:30" customHeight="1">
       <x:c r="B20" s="13" t="str">
@@ -3129,13 +3425,15 @@
       <x:c r="U20" s="17"/>
       <x:c r="V20" s="18"/>
       <x:c r="W20" s="17"/>
-      <x:c r="X20" s="18"/>
-      <x:c r="Y20" s="17"/>
-      <x:c r="Z20" s="18"/>
-      <x:c r="AA20" s="17"/>
-      <x:c r="AB20" s="18"/>
-      <x:c r="AC20" s="17"/>
-      <x:c r="AD20" s="18"/>
+      <x:c r="X20" s="24" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="Y20" s="24"/>
+      <x:c r="Z20" s="24"/>
+      <x:c r="AA20" s="24"/>
+      <x:c r="AB20" s="24"/>
+      <x:c r="AC20" s="24"/>
+      <x:c r="AD20" s="24"/>
     </x:row>
     <x:row r="21" spans="2:30" customHeight="1">
       <x:c r="B21" s="13" t="str">
@@ -3521,13 +3819,15 @@
         <x:f>TEXT("내용입력","aaa")</x:f>
         <x:v>내용입력</x:v>
       </x:c>
-      <x:c r="C25" s="15"/>
-      <x:c r="D25" s="14"/>
-      <x:c r="E25" s="15"/>
-      <x:c r="F25" s="14"/>
-      <x:c r="G25" s="15"/>
-      <x:c r="H25" s="14"/>
-      <x:c r="I25" s="15"/>
+      <x:c r="C25" s="24" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D25" s="24"/>
+      <x:c r="E25" s="24"/>
+      <x:c r="F25" s="24"/>
+      <x:c r="G25" s="24"/>
+      <x:c r="H25" s="24"/>
+      <x:c r="I25" s="24"/>
       <x:c r="J25" s="14"/>
       <x:c r="K25" s="15"/>
       <x:c r="L25" s="14"/>
@@ -4960,9 +5260,25 @@
       <x:c r="AD45" s="14"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="2">
+  <x:mergeCells count="18">
     <x:mergeCell ref="B1:AD1"/>
     <x:mergeCell ref="C2:E2"/>
+    <x:mergeCell ref="C7:I7"/>
+    <x:mergeCell ref="J7:P7"/>
+    <x:mergeCell ref="X7:AD7"/>
+    <x:mergeCell ref="C13:I13"/>
+    <x:mergeCell ref="J8:P8"/>
+    <x:mergeCell ref="Q8:W8"/>
+    <x:mergeCell ref="Q13:W13"/>
+    <x:mergeCell ref="Q14:W14"/>
+    <x:mergeCell ref="X14:AD14"/>
+    <x:mergeCell ref="J13:P13"/>
+    <x:mergeCell ref="C19:I19"/>
+    <x:mergeCell ref="J19:P19"/>
+    <x:mergeCell ref="Q19:W19"/>
+    <x:mergeCell ref="X19:AD19"/>
+    <x:mergeCell ref="X20:AD20"/>
+    <x:mergeCell ref="C25:I25"/>
   </x:mergeCells>
   <x:conditionalFormatting sqref="C5:AD6">
     <x:cfRule type="expression" dxfId="6" priority="7">
